--- a/medicine/Enfance/Henriette_Bichonnier/Henriette_Bichonnier.xlsx
+++ b/medicine/Enfance/Henriette_Bichonnier/Henriette_Bichonnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henriette Bichonnier, née le 27 juin 1943 à Clermont-Ferrand et morte le 20 janvier 2018[1] dans le 15e arrondissement de Paris[2], est un écrivain spécialisé dans les ouvrages de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henriette Bichonnier, née le 27 juin 1943 à Clermont-Ferrand et morte le 20 janvier 2018 dans le 15e arrondissement de Paris, est un écrivain spécialisé dans les ouvrages de jeunesse.
 </t>
         </is>
       </c>
@@ -511,27 +523,133 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'une enfance à la campagne, entre la plaine du Forez et le Beaujolais, elle garde le souvenir des jeux dans les fermes qui seront source d'inspiration pour ses contes. Elle a toujours attaché une énorme importance à lecture, chez les enfants : tout enfant qui a du mal à lire aura de la difficulté à poursuivre ses études, la littérature étant la matière qui sert à apprendre les autres matières à l'école[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une enfance à la campagne, entre la plaine du Forez et le Beaujolais, elle garde le souvenir des jeux dans les fermes qui seront source d'inspiration pour ses contes. Elle a toujours attaché une énorme importance à lecture, chez les enfants : tout enfant qui a du mal à lire aura de la difficulté à poursuivre ses études, la littérature étant la matière qui sert à apprendre les autres matières à l'école.
 Après des études de langues et lettres modernes à l'université de Lyon et un court passage dans l'enseignement au lycée de Saint-Étienne, elle se lance dans l'écriture de textes pour la jeunesse et pour la presse.
 Elle participe au journal Pomme d'Api en 1971. Puis elle fait ses débuts dans la bande dessinée en même temps que François Bourgeon, dont elle sera la première scénariste dans les journaux Lisette (1972), et Djin (1974).
 Journaliste féministe à F Magazine, puis responsable de la rubrique « Loisirs enfants » dans le supplément parisien de Télérama, elle a écrit une centaine d'ouvrages pour la jeunesse.
-En 1980, elle obtient la "Mention" Prix critique en herbe, de la Foire du livre de jeunesse de Bologne[4] (Italie) pour son ouvrage  Clémentine et Célestin et la neige, illustré par Pierre-Yves Robin et Guy Autréau.
-Priorité à la lecture
-Dès 1972, alors que la littérature pour la jeunesse était encore mal implantée en France, elle allait à la rencontre des enfants à titre bénévole, dans les régions défavorisées et les bibliothèques naissantes. Notamment à La Ricamarie, près de Saint-Étienne, et plus tard, dans la région Nord-Pas-de-Calais en pleine désindustrialisation. Son souci étant d'associer les adultes au projet de lutte contre l'illettrisme, elle réunissait autant que possible, après l'animation avec les enfants, les parents, enseignants, bibliothécaires, organisant avec eux des débats et groupes de réflexion. En 1989, elle inaugurait la bibliothèque La Ciotat, en compagnie de Louis Mirman[note 1] et de sa femme Madeleine Gaydoux ou Gueydoux[note 2]. Elle a contribué aux entretiens Nathan à La Sorbonne, en 1990[5].
-Dans le no 8 des Actes de lecture publiés par l'Association française pour la lecture[6] en 1984, au cours d'un entretien avec Yvanne Chenouf, elle a défendu la spécificité de la littérature jeunesse. S'élevant contre le cliché de sous-littérature qui lui est attribué, elle recommandait aux auteurs jeunesse de ne pas s'excuser de « n'écrire QUE pour les enfants », et de ne pas chercher à tout prix les mêmes faveurs des médias que la littérature générale, parce que cela n'apportait rien au public concerné, à savoir : les enfants[7].
-En 2004, avec le Réseau des Observatoires Locaux de la Lecture (ROLL), elle a participé à une réflexion sur l'apprentissage de la lecture de romans en cycle 3 et collège avec Alain Bentolila et Jean Mesnager qui ont conçu, à partir de son roman Kiki la Casse, une méthode d'application[8].
-L'édition
-Conseillère éditoriale aux éditions Hachette de 1986 à 1988, puis chez Nathan de 1989 à 1993 où elle a dirigé plusieurs collections dont la « Bibliothèque internationale ». Elle a publié entre autres :
-Claude Bourgeyx, écrivain et dramaturge français dont Le Fil à retordre était le premier ouvrage pour enfants et qui a reçu le prix de la Société des gens de lettres, (1991)[9]
+En 1980, elle obtient la "Mention" Prix critique en herbe, de la Foire du livre de jeunesse de Bologne (Italie) pour son ouvrage  Clémentine et Célestin et la neige, illustré par Pierre-Yves Robin et Guy Autréau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Priorité à la lecture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1972, alors que la littérature pour la jeunesse était encore mal implantée en France, elle allait à la rencontre des enfants à titre bénévole, dans les régions défavorisées et les bibliothèques naissantes. Notamment à La Ricamarie, près de Saint-Étienne, et plus tard, dans la région Nord-Pas-de-Calais en pleine désindustrialisation. Son souci étant d'associer les adultes au projet de lutte contre l'illettrisme, elle réunissait autant que possible, après l'animation avec les enfants, les parents, enseignants, bibliothécaires, organisant avec eux des débats et groupes de réflexion. En 1989, elle inaugurait la bibliothèque La Ciotat, en compagnie de Louis Mirman[note 1] et de sa femme Madeleine Gaydoux ou Gueydoux[note 2]. Elle a contribué aux entretiens Nathan à La Sorbonne, en 1990.
+Dans le no 8 des Actes de lecture publiés par l'Association française pour la lecture en 1984, au cours d'un entretien avec Yvanne Chenouf, elle a défendu la spécificité de la littérature jeunesse. S'élevant contre le cliché de sous-littérature qui lui est attribué, elle recommandait aux auteurs jeunesse de ne pas s'excuser de « n'écrire QUE pour les enfants », et de ne pas chercher à tout prix les mêmes faveurs des médias que la littérature générale, parce que cela n'apportait rien au public concerné, à savoir : les enfants.
+En 2004, avec le Réseau des Observatoires Locaux de la Lecture (ROLL), elle a participé à une réflexion sur l'apprentissage de la lecture de romans en cycle 3 et collège avec Alain Bentolila et Jean Mesnager qui ont conçu, à partir de son roman Kiki la Casse, une méthode d'application.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'édition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conseillère éditoriale aux éditions Hachette de 1986 à 1988, puis chez Nathan de 1989 à 1993 où elle a dirigé plusieurs collections dont la « Bibliothèque internationale ». Elle a publié entre autres :
+Claude Bourgeyx, écrivain et dramaturge français dont Le Fil à retordre était le premier ouvrage pour enfants et qui a reçu le prix de la Société des gens de lettres, (1991)
 Angela Nanetti, écrivaine italienne dont elle a traduit Les mémoires d'Adalbert (prix du livre jeunesse de Metz, 1993 ;
-Ivan Kùsan, écrivain croate dont Koko le terrible a reçu le prix de L'Ami Étranger au Festival européen de Strasbourg (1991).
-La bande dessinée
-La bande dessinée n'est pas le mode d'écriture favori de l'auteur. Toutefois, à la demande de rédactions de journaux, ou d'éditeurs, elle a produit un certain nombre de séries[10], notamment pour le débutant François Bourgeon qui venait d'illustrer dans l'hebdomadaire Lisette deux de ses nouvelles : Les Crèmes glacées et Le Noir profond.
+Ivan Kùsan, écrivain croate dont Koko le terrible a reçu le prix de L'Ami Étranger au Festival européen de Strasbourg (1991).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La bande dessinée n'est pas le mode d'écriture favori de l'auteur. Toutefois, à la demande de rédactions de journaux, ou d'éditeurs, elle a produit un certain nombre de séries, notamment pour le débutant François Bourgeon qui venait d'illustrer dans l'hebdomadaire Lisette deux de ses nouvelles : Les Crèmes glacées et Le Noir profond.
 De 1971 à 1973, dans l'hebdomadaire Lisette : Le Bal du Doge, et la série Docteur Anne, illustrations François Bourgeon, Bayard Presse.
 1974-1975, à Fleurus presse, dans l'hebdomadaire Djin : Une armée pour Gaélis (22 janvier 1975) et La Légende de Freya (9 avril 1975), illustrations François Bourgeon.
-1975, dans l'hebdomadaire Djin à Fleurus presse, série Chobise, chanteuse à voix illustrations de Pierre Guilmard[11].
+1975, dans l'hebdomadaire Djin à Fleurus presse, série Chobise, chanteuse à voix illustrations de Pierre Guilmard.
 2001 à 2004, série Les Pétules, illustrations Benoît Debecker, De La Martinière jeunesse, 15 albums:
 La Potion à disparaître
 Fifi Cassenougat
@@ -551,31 +669,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Henriette_Bichonnier</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bébés animaux d'Afrique, Odège, 1971
 Le Singe et les foulards, Odège - AMZ Milano, 1972
@@ -600,7 +720,7 @@
 Le Petit cochon qui mettait les doigts dans son nez, Nathan, 1982
 La Petite souris qui ne se faisait pas de souci, Nathan, 1982
 Clémentine et Célestin – Le goûter d'anniversaire, Grasset, 1984
-Émilie et le Crayon magique, Hachette, coll. « Le Livre de poche jeunesse », 1983, prix Bernard Versele de la ligue des familles de Belgique, Bruxelles, 1986[12]
+Émilie et le Crayon magique, Hachette, coll. « Le Livre de poche jeunesse », 1983, prix Bernard Versele de la ligue des familles de Belgique, Bruxelles, 1986
 Le Dictionnaire des animaux, ill. Noëlle Le Guillozic, Rouge et Or, 1983
 Le Chat et la souris voyagent dans l'espace, ill. Pierre Cornuel, Grasset, 1983; rééd. 2002
 Corentin au pays du pipi-caca
@@ -635,7 +755,7 @@
 Contes de la maison qui parle, ill. Sylvie Toussaint, Nathan, 1992
 Comment élever son géant, ill. Daniel Maja, Nathan, 1992.
 Delphine et la grosse colère, ill. Pronto, Nathan, 1992
-La Délicieuse automobile, ill. Cathy Muller (illustratrice)[13] Nathan, 1992]
+La Délicieuse automobile, ill. Cathy Muller (illustratrice) Nathan, 1992]
 Contes de la Reine Trottinette, ill. Robert Scouvart, Nathan, 1993
 Quel idiot cet ogre, ill. Mérel, Fleurus-presse éditions, 1993
 Framboises, Gallimard, 1996
@@ -657,45 +777,152 @@
 Attention, voilà Tipota, Bayard, 2006
 L'École des Gnomes, Bayard, collection Les Belles Histoires 2006
 Niu Nai et ses dragons, Bayard, 2008
-Le Monstre poilu et 3 autres histoires, disque compact, textes lus par Francis Perrin, Pierre Junière William Pinville (voix off de Questions pour un champion)[14], Pef, Max de Bley, 2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Le Monstre poilu et 3 autres histoires, disque compact, textes lus par Francis Perrin, Pierre Junière William Pinville (voix off de Questions pour un champion), Pef, Max de Bley, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Henriette_Bichonnier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptation à la scène</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Monstre poilu et Le Roi de bons ont fait l'objet de plusieurs adaptations à la scène, en France, en Italie et en Espagne.
-En Italie
-C'est dans en Italie que Le Monstre poilu a été le plus souvent adapté[15],[16],[17] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptation à la scène</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En Italie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans en Italie que Le Monstre poilu a été le plus souvent adapté :
 Le Roi des bons a été adapté par le Fanta teatro à Novare sous le titre La Bellezza del re, puis à Maniago et Cambiago
-En Espagne
-Spectacle de marionnettes par la compagnie Luna Nueva[18] et par le théâtre Titeres.
-En France
-Le Roi de bons est adapté sur en marionnettes dès sa publication par la compagnie Arkétal de Mougins (1988 à 1993).
-En ballet, il a été repris trois fois. Une première avec les chorégraphes invités au sein de la compagnie Dominique Bagouet : Le Roi des bons, d'après le texte d'Henriette Bichonnier, adaptation chorégraphique de Bernard Glandier, 1989, Montpellier. Repris pour la Compagnie Alentours de Bernard Glandier, présenté notamment avec la danseuse Agnès de Lagausie pour la reprise du Roi des bons en 1991, puis au Théâtre 71 de Malakoff, 1996-1997, et dans toute la France et à l'étranger. La chorégraphie de Bernard Glandier a été reprise par Sylvie Giron et la compagnie Balades en 2011[19]. Tournée notamment à la Maison de la danse de Lyon en novembre 2011, l'Opéra national de Bordeaux et la Scène nationale de Sénart en 2012 et programmée de nouveau en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptation à la scène</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En Espagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spectacle de marionnettes par la compagnie Luna Nueva et par le théâtre Titeres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henriette_Bichonnier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptation à la scène</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Roi de bons est adapté sur en marionnettes dès sa publication par la compagnie Arkétal de Mougins (1988 à 1993).
+En ballet, il a été repris trois fois. Une première avec les chorégraphes invités au sein de la compagnie Dominique Bagouet : Le Roi des bons, d'après le texte d'Henriette Bichonnier, adaptation chorégraphique de Bernard Glandier, 1989, Montpellier. Repris pour la Compagnie Alentours de Bernard Glandier, présenté notamment avec la danseuse Agnès de Lagausie pour la reprise du Roi des bons en 1991, puis au Théâtre 71 de Malakoff, 1996-1997, et dans toute la France et à l'étranger. La chorégraphie de Bernard Glandier a été reprise par Sylvie Giron et la compagnie Balades en 2011. Tournée notamment à la Maison de la danse de Lyon en novembre 2011, l'Opéra national de Bordeaux et la Scène nationale de Sénart en 2012 et programmée de nouveau en 2013.
 Au théâtre, il est représenté par la Compagnie des 3 Casquettes.
 </t>
         </is>
